--- a/TableNew.xlsx
+++ b/TableNew.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MFE\Github\finops_casestudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ee3633ceca95f7d/Documents/ISE/finops_casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A3FC77-8DEA-4B9D-B436-E4CB082C933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E1A3FC77-8DEA-4B9D-B436-E4CB082C933A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB17C1B9-885A-4DD5-A591-F8AFE61F6DCA}"/>
   <bookViews>
-    <workbookView xWindow="42240" yWindow="4665" windowWidth="13500" windowHeight="15435" xr2:uid="{0C413E91-A581-429D-B746-691EB96FC0C5}"/>
+    <workbookView xWindow="1380" yWindow="19065" windowWidth="21600" windowHeight="11295" xr2:uid="{0C413E91-A581-429D-B746-691EB96FC0C5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="d" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>MATURITY</t>
-  </si>
-  <si>
     <t>COUPON</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>ASKED YIELD</t>
+  </si>
+  <si>
+    <t>MATURITY</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:J365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,19 +425,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
